--- a/Lista de Modelos Realizados.xlsx
+++ b/Lista de Modelos Realizados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/je_pulido_uniandes_edu_co/Documents/Big Data y Machine Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleja/Documents/Maestría Uniandes/Clases/Big Data y Machine Learning/Repositorios Git Hub/Problem_set_2_BDML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{850A6FBE-0E26-4152-9107-A671E74A9212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEECE4F3-F8FA-9848-B9BD-02777DF6098D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BFC730-F08B-0F42-95C5-CEE209D271DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="20740" windowHeight="16280" xr2:uid="{062AE29A-9D6D-4AB4-820E-B2E0346F8EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="16020" xr2:uid="{062AE29A-9D6D-4AB4-820E-B2E0346F8EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Modelo</t>
   </si>
@@ -98,6 +98,32 @@
   </si>
   <si>
     <t xml:space="preserve">El mismo de elastic net con SMOTE pero agregué las mismas variables de jefe de hogar para conyuge y intenté crear una variable de "soltero_menores" que tiene 1 cuando es hombre, jefe de hogar, no hay conyuge en el hogar y hay menores, y otra de "soltera_menores" para mujeres. Pero el resultado de F1 y de la predicción en Kaggle es la misma. </t>
+  </si>
+  <si>
+    <t>Predicción pobreza</t>
+  </si>
+  <si>
+    <t>Pobre~Dominio + Depto + N_cuartos_hog + Nper + nmenores_5 + nmenores_6_11 + 
+                      nmenores_12_17 + nocupados + nincapacitados + ntrabajo_menores + Head_Mujer + Head_Afiliado_SS + 
+                      Head_exper_ult_trab + Head_Rec_alimento + Head_Rec_subsidio + Head_Rec_vivienda + Head_Ocupacion + 
+                      Head_Segundo_trabajo + DormitorXpersona + Ln_Cuota + Ln_Pago_arrien + nmujeres + Ocup_vivienda + 
+                      Head_Cot_pension</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>Dominio + Depto + N_cuartos_hog + Nper + nmenores_5 + nmenores_6_11 + 
+                  nmenores_12_17 + nocupados + nincapacitados + Head_Mujer +  
+                  Head_exper_ult_trab + Head_Rec_alimento + Head_Rec_subsidio + Head_Ocupacion + 
+                  Head_Segundo_trabajo + DormitorXpersona + Ln_Pago_arrien + Ocup_vivienda + 
+                  Head_Cot_pension + nocupados2 + ntrabajo_menores2 + nincapacitados2</t>
+  </si>
+  <si>
+    <t>0.60</t>
   </si>
 </sst>
 </file>
@@ -504,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54674CC-5F80-4ABC-822C-9614E6C2C51A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,7 +546,7 @@
     <col min="6" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,6 +633,34 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Lista de Modelos Realizados.xlsx
+++ b/Lista de Modelos Realizados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleja/Documents/Maestría Uniandes/Clases/Big Data y Machine Learning/Repositorios Git Hub/Problem_set_2_BDML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BFC730-F08B-0F42-95C5-CEE209D271DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3FDDE-619B-424E-806E-B94DF6AA0471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="16020" xr2:uid="{062AE29A-9D6D-4AB4-820E-B2E0346F8EF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Modelo</t>
   </si>
@@ -124,6 +124,31 @@
   </si>
   <si>
     <t>0.60</t>
+  </si>
+  <si>
+    <t>Ingtotug~Dominio + Depto + P5010 + 
+                      N_cuartos_hog + Nper + nmenores_5 + nmenores_6_11 + 
+                      nmenores_12_17 + nocupados + nincapacitados + ntrabajo_menores + 
+                      Head_Mujer + Head_Afiliado_SS + P5140 + Npersug +
+                      Head_exper_ult_trab + Head_Rec_alimento + Head_Rec_subsidio + 
+                      Head_Rec_vivienda + Head_Ocupacion + maxEducLevel + Head_Primas +
+                      Head_Segundo_trabajo + DormitorXpersona + Ln_Cuota + Head_Oficio +
+                      Ln_Pago_arrien + nmujeres + Ocup_vivienda + 
+                      Head_Cot_pension + Cabecera</t>
+  </si>
+  <si>
+    <t>XGBoosting</t>
+  </si>
+  <si>
+    <t>Ln_Ing_tot_hogar~Dominio + Depto + P5010 + 
+                        N_cuartos_hog + Nper + nmenores_5 + nmenores_6_11 + 
+                        nmenores_12_17 + nocupados + nincapacitados + ntrabajo_menores + 
+                        Head_Mujer + Head_Afiliado_SS + P5140 + Npersug +
+                        Head_exper_ult_trab + Head_Rec_alimento + Head_Rec_subsidio + 
+                        Head_Rec_vivienda + Head_Ocupacion + maxEducLevel + Head_Primas +
+                        Head_Segundo_trabajo + DormitorXpersona + Ln_Cuota + Head_Oficio +
+                        Ln_Pago_arrien + nmujeres + Ocup_vivienda + 
+                        Head_Cot_pension + Cabecera</t>
   </si>
 </sst>
 </file>
@@ -530,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54674CC-5F80-4ABC-822C-9614E6C2C51A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -663,6 +688,28 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de Modelos Realizados.xlsx
+++ b/Lista de Modelos Realizados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/je_pulido_uniandes_edu_co/Documents/Big Data y Machine Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{850A6FBE-0E26-4152-9107-A671E74A9212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEECE4F3-F8FA-9848-B9BD-02777DF6098D}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{850A6FBE-0E26-4152-9107-A671E74A9212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E36F9B-3AC5-4C92-84D9-88CAB4696EDA}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="20740" windowHeight="16280" xr2:uid="{062AE29A-9D6D-4AB4-820E-B2E0346F8EF5}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Modelo</t>
   </si>
@@ -45,16 +47,22 @@
     <t>Tipo de Algoritmo</t>
   </si>
   <si>
+    <t>Score Kaggle</t>
+  </si>
+  <si>
     <t>Predicciòn pobreza</t>
   </si>
   <si>
+    <t>Dominio, Ocup_vivienda, Nper, maxEducLevel, nocupados, nincapacitados,Cabecera, DormitorXpersona, Head_Mujer, ntrabajo_menores, Pobre</t>
+  </si>
+  <si>
+    <t>Logit con CV y remuestreo con SMOTE.</t>
+  </si>
+  <si>
     <t>Predicción Ingreso</t>
   </si>
   <si>
     <t xml:space="preserve">         </t>
-  </si>
-  <si>
-    <t>Dominio, Ocup_vivienda, Nper, maxEducLevel, nocupados, nincapacitados,Cabecera, DormitorXpersona, Head_Mujer, ntrabajo_menores, Pobre</t>
   </si>
   <si>
     <t xml:space="preserve">Todas menos: 
@@ -79,15 +87,9 @@
     <t>Elastic Net con SMOTE. F1 = 0.66</t>
   </si>
   <si>
-    <t>Score Kaggle</t>
-  </si>
-  <si>
     <t>0.66</t>
   </si>
   <si>
-    <t>Logit con CV y remuestreo con SMOTE.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logit con remuestreo con SMOTE. </t>
   </si>
   <si>
@@ -98,13 +100,16 @@
   </si>
   <si>
     <t xml:space="preserve">El mismo de elastic net con SMOTE pero agregué las mismas variables de jefe de hogar para conyuge y intenté crear una variable de "soltero_menores" que tiene 1 cuando es hombre, jefe de hogar, no hay conyuge en el hogar y hay menores, y otra de "soltera_menores" para mujeres. Pero el resultado de F1 y de la predicción en Kaggle es la misma. </t>
+  </si>
+  <si>
+    <t>Predicción de pobreza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,23 +509,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54674CC-5F80-4ABC-822C-9614E6C2C51A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="2"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,51 +536,51 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="272.10000000000002">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="272.10000000000002">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -587,26 +592,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="272.10000000000002">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="63.95">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
